--- a/Running projects/BAF Head Office/BOQ - Major Overhaulling Works 2025.xlsx
+++ b/Running projects/BAF Head Office/BOQ - Major Overhaulling Works 2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rehan Aslam\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\BAF Head Office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8AADFBE-F5C6-4D86-9A29-3623038A9810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FEEA98A-2AB9-454A-A42C-4EADCEF2D035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOQ Summary" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Air Handling Unit'!$A$1:$F$174</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'BOQ Summary'!$A$1:$C$35</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Plant Room Item'!$A$1:$H$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Plant Room Item'!$A$1:$H$68</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Air Handling Unit'!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'Plant Room Item'!$1:$2</definedName>
   </definedNames>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="111">
   <si>
     <t>S.NO</t>
   </si>
@@ -69,15 +69,9 @@
     <t xml:space="preserve">supply &amp; installation of  alluminium air filter </t>
   </si>
   <si>
-    <t>gate valve make hartsley 6" provide &amp; installation.</t>
-  </si>
-  <si>
     <t>Nos</t>
   </si>
   <si>
-    <t>supply &amp; installation of complete filter frame,bag filter &amp; alluminium air filter for Fresh Air Unit</t>
-  </si>
-  <si>
     <t>Job</t>
   </si>
   <si>
@@ -156,61 +150,7 @@
     <t>BMS room oil base mate finish NIPPON paint.</t>
   </si>
   <si>
-    <t>Upper hot water distribution basin with new showering box fiber material need &amp; lower cool basin &amp; fan stack frame &amp; metal fan guard replaced with fiber coating 3 layer apply &amp; fiber material minor repairing required.</t>
-  </si>
-  <si>
-    <t>Complete new fills (1150x3=3450) with new fills foundation fiber metarial &amp; louvers required</t>
-  </si>
-  <si>
-    <t>Schneider Motorized Butterfly valve 8" Outlet side need to be change with flenges.</t>
-  </si>
-  <si>
-    <t>Schneider Motorized Butterfly valve 6" Inlet side need to be change with flenges.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Electrical wires proper dress up upvc pipe fitting. </t>
-  </si>
-  <si>
-    <t>Cooling towers Pipeline header inlet &amp; outlet 12'' Washing required.</t>
-  </si>
-  <si>
-    <t>Sft.</t>
-  </si>
-  <si>
     <t xml:space="preserve">4th, Mezzanine B &amp; Ground A UNIT  </t>
-  </si>
-  <si>
-    <t>Overhauling of cooling tower gear box / motor replaced existing ball bearing with new and provide grease nipple for lubricant complete in all respect.</t>
-  </si>
-  <si>
-    <t>Providing and installation of new Fan blade, New hub with alignment of gear box.</t>
-  </si>
-  <si>
-    <t>ROOF TOP (COOLING TOWERS)</t>
-  </si>
-  <si>
-    <t>Dismantle of cooling tower structure frame and other metal accessories removed &amp; galvanized hot dipped and reinstalled accordingly.</t>
-  </si>
-  <si>
-    <t>Gate valve brass 2" need to be change make HATTERSLEY OR GALA.</t>
-  </si>
-  <si>
-    <t>Hydroplast showering pipe fittings joints leakage repairing with fiber coating 3 layer apply</t>
-  </si>
-  <si>
-    <t>Hydroplast Butterfly valve 4" replaced with flange</t>
-  </si>
-  <si>
-    <t>Float ball valve stainless steel 1.5" need to be change.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooling tower foundation steel beams/ girders outside area walk way platform and complete m/s pipe with pipe foundation  need to be bitumen paint with enimel paint required. NIPPON </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nut Bolts, Washers, Screws &amp; Rivits Need Stainless Steel required . </t>
-  </si>
-  <si>
-    <t>Chilled water line supply &amp; return also anti fungus paint &amp; another paint with EPS thermocol insulation.</t>
   </si>
   <si>
     <t>Set</t>
@@ -554,6 +494,9 @@
   </si>
   <si>
     <t>Grand Amount Rs</t>
+  </si>
+  <si>
+    <t>GrandTotal Amount Rs</t>
   </si>
 </sst>
 </file>
@@ -684,7 +627,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -700,12 +643,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1099,7 +1036,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1111,9 +1048,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1148,14 +1082,11 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1208,15 +1139,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1227,7 +1149,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1310,12 +1232,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1337,6 +1253,9 @@
     <xf numFmtId="165" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1381,9 +1300,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1668,15 +1584,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A11:C30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A10" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="65.42578125" style="61" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="65.42578125" style="56" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" style="13" customWidth="1"/>
     <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="255" max="255" width="6.28515625" customWidth="1"/>
@@ -1996,186 +1912,186 @@
     <col min="16131" max="16131" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="1:3" s="26" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="59"/>
-      <c r="C11" s="27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="26" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="27"/>
-    </row>
-    <row r="13" spans="1:3" s="26" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="27"/>
-    </row>
-    <row r="14" spans="1:3" s="26" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="27"/>
-    </row>
-    <row r="15" spans="1:3" s="26" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+    <row r="11" spans="1:3" s="24" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="23"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="24" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="23"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="25"/>
+    </row>
+    <row r="13" spans="1:3" s="24" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="23"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="25"/>
+    </row>
+    <row r="14" spans="1:3" s="24" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="23"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="25"/>
+    </row>
+    <row r="15" spans="1:3" s="24" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="54"/>
+      <c r="C15" s="27">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="24" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="82" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="82"/>
+      <c r="C16" s="82"/>
+    </row>
+    <row r="17" spans="1:3" s="24" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="29"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="28"/>
+    </row>
+    <row r="18" spans="1:3" s="24" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="59"/>
-      <c r="C15" s="29">
-        <v>45623</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="26" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="88" t="s">
-        <v>113</v>
-      </c>
-      <c r="B16" s="88"/>
-      <c r="C16" s="88"/>
-    </row>
-    <row r="17" spans="1:3" s="26" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="30"/>
-    </row>
-    <row r="18" spans="1:3" s="26" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="87" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="87"/>
-      <c r="C18" s="87"/>
-    </row>
-    <row r="19" spans="1:3" s="26" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="32"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="32"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="81"/>
+    </row>
+    <row r="19" spans="1:3" s="24" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="30"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="30"/>
     </row>
     <row r="20" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="62" t="s">
+      <c r="A20" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="71" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="21" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="63">
-        <v>1</v>
-      </c>
-      <c r="B21" s="67" t="s">
-        <v>115</v>
-      </c>
-      <c r="C21" s="72">
+      <c r="A21" s="58">
+        <v>1</v>
+      </c>
+      <c r="B21" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="67">
         <f>'Air Handling Unit'!F28</f>
         <v>2511000</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="64">
+      <c r="A22" s="59">
         <v>2</v>
       </c>
-      <c r="B22" s="68" t="s">
-        <v>116</v>
-      </c>
-      <c r="C22" s="73">
+      <c r="B22" s="63" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="68">
         <f>'Air Handling Unit'!F53</f>
         <v>2511000</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="64">
+      <c r="A23" s="59">
         <v>3</v>
       </c>
-      <c r="B23" s="68" t="s">
-        <v>117</v>
-      </c>
-      <c r="C23" s="73">
+      <c r="B23" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="68">
         <f>'Air Handling Unit'!F78</f>
         <v>2491000</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="64">
+      <c r="A24" s="59">
         <v>4</v>
       </c>
-      <c r="B24" s="68" t="s">
-        <v>118</v>
-      </c>
-      <c r="C24" s="73">
+      <c r="B24" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="68">
         <f>'Air Handling Unit'!F103</f>
         <v>2491000</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="64">
+      <c r="A25" s="59">
         <v>5</v>
       </c>
-      <c r="B25" s="68" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="73">
+      <c r="B25" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="68">
         <f>'Air Handling Unit'!F140</f>
         <v>3736800</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="64">
+      <c r="A26" s="59">
         <v>6</v>
       </c>
-      <c r="B26" s="69" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="73">
+      <c r="B26" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="68">
         <f>'Air Handling Unit'!F150</f>
         <v>507000</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="64">
+      <c r="A27" s="59">
         <v>7</v>
       </c>
-      <c r="B27" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="73">
+      <c r="B27" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="68">
         <f>'Air Handling Unit'!F164</f>
         <v>650000</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="64">
+      <c r="A28" s="59">
         <v>8</v>
       </c>
-      <c r="B28" s="69" t="s">
+      <c r="B28" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="73">
+      <c r="C28" s="68">
         <f>'Air Handling Unit'!F174</f>
         <v>230000</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="65">
+      <c r="A29" s="60">
         <v>9</v>
       </c>
-      <c r="B29" s="70" t="s">
-        <v>128</v>
-      </c>
-      <c r="C29" s="74">
-        <f>'Plant Room Item'!H128</f>
+      <c r="B29" s="65" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="69">
+        <f>'Plant Room Item'!H104</f>
         <v>9910000</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="62"/>
-      <c r="B30" s="66" t="s">
-        <v>114</v>
-      </c>
-      <c r="C30" s="75">
+      <c r="A30" s="57"/>
+      <c r="B30" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="70">
         <f>SUM(C21:C29)</f>
         <v>25037800</v>
       </c>
@@ -2187,7 +2103,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2196,15 +2112,15 @@
   <dimension ref="A1:F177"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A163" zoomScale="90" zoomScaleNormal="110" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="H185" sqref="H185"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="78.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="1"/>
@@ -2214,3218 +2130,3218 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="91" t="s">
-        <v>112</v>
-      </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-    </row>
-    <row r="2" spans="1:6" s="8" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A1" s="85" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+    </row>
+    <row r="2" spans="1:6" s="7" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>126</v>
+      <c r="E2" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" s="48" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
+    <row r="5" spans="1:6" s="43" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="31"/>
+      <c r="B5" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="38">
-        <v>1</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="C7" s="7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="12">
+      <c r="A7" s="36">
+        <v>1</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="11">
         <v>110000</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="11">
         <f>E7*C7</f>
         <v>110000</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="38">
+      <c r="A8" s="36">
         <v>2</v>
       </c>
-      <c r="B8" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="C8" s="7">
-        <v>1</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="12">
+      <c r="B8" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="11">
         <v>120000</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <f t="shared" ref="F8:F27" si="0">E8*C8</f>
         <v>120000</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="38">
+      <c r="A9" s="36">
         <v>3</v>
       </c>
-      <c r="B9" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="C9" s="7">
-        <v>1</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="12">
+      <c r="B9" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="11">
         <v>160000</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="11">
         <f t="shared" si="0"/>
         <v>160000</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="38">
+      <c r="A10" s="36">
         <v>4</v>
       </c>
-      <c r="B10" s="76" t="s">
-        <v>120</v>
-      </c>
-      <c r="C10" s="7">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="12">
+      <c r="B10" s="71" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="11">
         <v>250000</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <f t="shared" si="0"/>
         <v>250000</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="38">
+      <c r="A11" s="36">
         <v>5</v>
       </c>
-      <c r="B11" s="76" t="s">
-        <v>123</v>
-      </c>
-      <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="12">
+      <c r="B11" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="11">
         <v>500000</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <f t="shared" si="0"/>
         <v>500000</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="38">
+      <c r="A12" s="36">
         <v>6</v>
       </c>
-      <c r="B12" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="7">
-        <v>1</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="12">
+      <c r="B12" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="11">
         <v>23000</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="11">
         <f t="shared" si="0"/>
         <v>23000</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="38">
+      <c r="A13" s="36">
         <v>7</v>
       </c>
-      <c r="B13" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="7">
-        <v>1</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="12">
+      <c r="B13" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="11">
         <v>40000</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="11">
         <f t="shared" si="0"/>
         <v>40000</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="38">
+      <c r="A14" s="36">
         <v>8</v>
       </c>
-      <c r="B14" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="7">
-        <v>1</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="12">
+      <c r="B14" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="11">
         <v>50000</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="11">
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="38">
+      <c r="A15" s="36">
         <v>9</v>
       </c>
-      <c r="B15" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="7">
-        <v>1</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="12">
+      <c r="B15" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="11">
         <v>50000</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="11">
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="38">
+      <c r="A16" s="36">
         <v>10</v>
       </c>
-      <c r="B16" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="7">
-        <v>1</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="12">
+      <c r="B16" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="11">
         <v>390000</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="11">
         <f t="shared" si="0"/>
         <v>390000</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="38">
+      <c r="A17" s="36">
         <v>11</v>
       </c>
-      <c r="B17" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="12">
+      <c r="B17" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="11">
         <v>120000</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="11">
         <f t="shared" si="0"/>
         <v>120000</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="38">
+      <c r="A18" s="36">
         <v>12</v>
       </c>
-      <c r="B18" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="12">
+      <c r="B18" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="11">
         <v>120000</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="11">
         <f t="shared" si="0"/>
         <v>120000</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="38">
-        <v>13</v>
-      </c>
-      <c r="B19" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="12">
+      <c r="A19" s="36">
+        <v>13</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="11">
         <v>35000</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="11">
         <f t="shared" si="0"/>
         <v>35000</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="38">
+      <c r="A20" s="36">
         <v>14</v>
       </c>
-      <c r="B20" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="C20" s="7">
+      <c r="B20" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="6">
         <v>2</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="12">
+      <c r="D20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="11">
         <v>90000</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="11">
         <f t="shared" si="0"/>
         <v>180000</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="38">
+      <c r="A21" s="36">
         <v>15</v>
       </c>
-      <c r="B21" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="12">
+      <c r="B21" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="6">
+        <v>1</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="11">
         <v>115000</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="11">
         <f t="shared" si="0"/>
         <v>115000</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="38">
+      <c r="A22" s="36">
         <v>16</v>
       </c>
-      <c r="B22" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="C22" s="7">
-        <v>1</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="12">
+      <c r="B22" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="6">
+        <v>1</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="11">
         <v>28000</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="11">
         <f t="shared" si="0"/>
         <v>28000</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="38">
+      <c r="A23" s="36">
         <v>17</v>
       </c>
-      <c r="B23" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" s="7">
-        <v>1</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="12">
+      <c r="B23" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="6">
+        <v>1</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="11">
         <v>100000</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="11">
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="38">
+      <c r="A24" s="36">
         <v>18</v>
       </c>
-      <c r="B24" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="C24" s="7">
-        <v>1</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="12">
+      <c r="B24" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="6">
+        <v>1</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="11">
         <v>15000</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="11">
         <f t="shared" si="0"/>
         <v>15000</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="38">
+      <c r="A25" s="36">
         <v>19</v>
       </c>
-      <c r="B25" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="C25" s="7">
-        <v>1</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="12">
+      <c r="B25" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="6">
+        <v>1</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="11">
         <v>20000</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="11">
         <f t="shared" si="0"/>
         <v>20000</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="38">
+      <c r="A26" s="36">
         <v>20</v>
       </c>
-      <c r="B26" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="C26" s="7">
-        <v>1</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="12">
+      <c r="B26" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="6">
+        <v>1</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="11">
         <v>35000</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F26" s="11">
         <f t="shared" si="0"/>
         <v>35000</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="38">
+      <c r="A27" s="36">
         <v>21</v>
       </c>
-      <c r="B27" s="51" t="s">
-        <v>98</v>
-      </c>
-      <c r="C27" s="52">
+      <c r="B27" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="47">
         <v>2</v>
       </c>
-      <c r="D27" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" s="53">
+      <c r="D27" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="48">
         <v>25000</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F27" s="11">
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="89" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="90"/>
-      <c r="C28" s="90"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="102">
+      <c r="A28" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="84"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="80">
         <f>SUM(F7:F27)</f>
         <v>2511000</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
     </row>
     <row r="30" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
-      <c r="B30" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
     </row>
     <row r="32" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="38">
-        <v>1</v>
-      </c>
-      <c r="B32" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" s="7">
-        <v>1</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="12">
+      <c r="A32" s="36">
+        <v>1</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="6">
+        <v>1</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="11">
         <v>110000</v>
       </c>
-      <c r="F32" s="12">
+      <c r="F32" s="11">
         <f>E32*C32</f>
         <v>110000</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="38">
+      <c r="A33" s="36">
         <v>2</v>
       </c>
-      <c r="B33" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="C33" s="7">
-        <v>1</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33" s="12">
+      <c r="B33" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="6">
+        <v>1</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="11">
         <v>120000</v>
       </c>
-      <c r="F33" s="12">
+      <c r="F33" s="11">
         <f t="shared" ref="F33:F52" si="1">E33*C33</f>
         <v>120000</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="38">
+      <c r="A34" s="36">
         <v>3</v>
       </c>
-      <c r="B34" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="C34" s="7">
-        <v>1</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" s="12">
+      <c r="B34" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="6">
+        <v>1</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="11">
         <v>160000</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="11">
         <f t="shared" si="1"/>
         <v>160000</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="38">
+      <c r="A35" s="36">
         <v>4</v>
       </c>
-      <c r="B35" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="C35" s="7">
-        <v>1</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E35" s="12">
+      <c r="B35" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="6">
+        <v>1</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="11">
         <v>250000</v>
       </c>
-      <c r="F35" s="12">
+      <c r="F35" s="11">
         <f t="shared" si="1"/>
         <v>250000</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="38">
+      <c r="A36" s="36">
         <v>5</v>
       </c>
-      <c r="B36" s="76" t="s">
-        <v>123</v>
-      </c>
-      <c r="C36" s="7">
-        <v>1</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" s="12">
+      <c r="B36" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="6">
+        <v>1</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="11">
         <v>500000</v>
       </c>
-      <c r="F36" s="12">
+      <c r="F36" s="11">
         <f t="shared" si="1"/>
         <v>500000</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="38">
+      <c r="A37" s="36">
         <v>6</v>
       </c>
-      <c r="B37" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="C37" s="7">
-        <v>1</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E37" s="12">
+      <c r="B37" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="6">
+        <v>1</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="11">
         <v>23000</v>
       </c>
-      <c r="F37" s="12">
+      <c r="F37" s="11">
         <f t="shared" si="1"/>
         <v>23000</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="38">
+      <c r="A38" s="36">
         <v>7</v>
       </c>
-      <c r="B38" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="C38" s="7">
-        <v>1</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E38" s="12">
+      <c r="B38" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="6">
+        <v>1</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="11">
         <v>40000</v>
       </c>
-      <c r="F38" s="12">
+      <c r="F38" s="11">
         <f t="shared" si="1"/>
         <v>40000</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="38">
+      <c r="A39" s="36">
         <v>8</v>
       </c>
-      <c r="B39" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="C39" s="7">
-        <v>1</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E39" s="12">
+      <c r="B39" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="6">
+        <v>1</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="11">
         <v>50000</v>
       </c>
-      <c r="F39" s="12">
+      <c r="F39" s="11">
         <f t="shared" si="1"/>
         <v>50000</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="38">
+      <c r="A40" s="36">
         <v>9</v>
       </c>
-      <c r="B40" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="C40" s="7">
-        <v>1</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E40" s="12">
+      <c r="B40" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="6">
+        <v>1</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="11">
         <v>50000</v>
       </c>
-      <c r="F40" s="12">
+      <c r="F40" s="11">
         <f t="shared" si="1"/>
         <v>50000</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="38">
+      <c r="A41" s="36">
         <v>10</v>
       </c>
-      <c r="B41" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" s="7">
-        <v>1</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E41" s="12">
+      <c r="B41" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="6">
+        <v>1</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="11">
         <v>390000</v>
       </c>
-      <c r="F41" s="12">
+      <c r="F41" s="11">
         <f t="shared" si="1"/>
         <v>390000</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A42" s="38">
+      <c r="A42" s="36">
         <v>11</v>
       </c>
-      <c r="B42" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="C42" s="7">
-        <v>1</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E42" s="12">
+      <c r="B42" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="6">
+        <v>1</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="11">
         <v>120000</v>
       </c>
-      <c r="F42" s="12">
+      <c r="F42" s="11">
         <f t="shared" si="1"/>
         <v>120000</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="38">
+      <c r="A43" s="36">
         <v>12</v>
       </c>
-      <c r="B43" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="C43" s="7">
-        <v>1</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E43" s="12">
+      <c r="B43" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" s="6">
+        <v>1</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="11">
         <v>120000</v>
       </c>
-      <c r="F43" s="12">
+      <c r="F43" s="11">
         <f t="shared" si="1"/>
         <v>120000</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="38">
-        <v>13</v>
-      </c>
-      <c r="B44" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="C44" s="7">
-        <v>1</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E44" s="12">
+      <c r="A44" s="36">
+        <v>13</v>
+      </c>
+      <c r="B44" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="6">
+        <v>1</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="11">
         <v>35000</v>
       </c>
-      <c r="F44" s="12">
+      <c r="F44" s="11">
         <f t="shared" si="1"/>
         <v>35000</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="38">
+      <c r="A45" s="36">
         <v>14</v>
       </c>
-      <c r="B45" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="C45" s="7">
+      <c r="B45" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" s="6">
         <v>2</v>
       </c>
-      <c r="D45" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45" s="12">
+      <c r="D45" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="11">
         <v>90000</v>
       </c>
-      <c r="F45" s="12">
+      <c r="F45" s="11">
         <f t="shared" si="1"/>
         <v>180000</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A46" s="38">
+      <c r="A46" s="36">
         <v>15</v>
       </c>
-      <c r="B46" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="C46" s="7">
-        <v>1</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E46" s="12">
+      <c r="B46" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="6">
+        <v>1</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="11">
         <v>115000</v>
       </c>
-      <c r="F46" s="12">
+      <c r="F46" s="11">
         <f t="shared" si="1"/>
         <v>115000</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="38">
+      <c r="A47" s="36">
         <v>16</v>
       </c>
-      <c r="B47" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="C47" s="7">
-        <v>1</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E47" s="12">
+      <c r="B47" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47" s="6">
+        <v>1</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E47" s="11">
         <v>28000</v>
       </c>
-      <c r="F47" s="12">
+      <c r="F47" s="11">
         <f t="shared" si="1"/>
         <v>28000</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="38">
+      <c r="A48" s="36">
         <v>17</v>
       </c>
-      <c r="B48" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="C48" s="7">
-        <v>1</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E48" s="12">
+      <c r="B48" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" s="6">
+        <v>1</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="11">
         <v>100000</v>
       </c>
-      <c r="F48" s="12">
+      <c r="F48" s="11">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="38">
+      <c r="A49" s="36">
         <v>18</v>
       </c>
-      <c r="B49" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="C49" s="7">
-        <v>1</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E49" s="12">
+      <c r="B49" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" s="6">
+        <v>1</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="11">
         <v>15000</v>
       </c>
-      <c r="F49" s="12">
+      <c r="F49" s="11">
         <f t="shared" si="1"/>
         <v>15000</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="38">
+      <c r="A50" s="36">
         <v>19</v>
       </c>
-      <c r="B50" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="C50" s="7">
-        <v>1</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E50" s="12">
+      <c r="B50" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50" s="6">
+        <v>1</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="11">
         <v>20000</v>
       </c>
-      <c r="F50" s="12">
+      <c r="F50" s="11">
         <f t="shared" si="1"/>
         <v>20000</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="38">
+      <c r="A51" s="36">
         <v>20</v>
       </c>
-      <c r="B51" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="C51" s="7">
-        <v>1</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E51" s="12">
+      <c r="B51" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C51" s="6">
+        <v>1</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="11">
         <v>35000</v>
       </c>
-      <c r="F51" s="12">
+      <c r="F51" s="11">
         <f t="shared" si="1"/>
         <v>35000</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="38">
+      <c r="A52" s="36">
         <v>21</v>
       </c>
-      <c r="B52" s="51" t="s">
-        <v>98</v>
-      </c>
-      <c r="C52" s="52">
+      <c r="B52" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" s="47">
         <v>2</v>
       </c>
-      <c r="D52" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="E52" s="53">
+      <c r="D52" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="E52" s="48">
         <v>25000</v>
       </c>
-      <c r="F52" s="12">
+      <c r="F52" s="11">
         <f t="shared" si="1"/>
         <v>50000</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="89" t="s">
-        <v>20</v>
-      </c>
-      <c r="B53" s="90"/>
-      <c r="C53" s="90"/>
-      <c r="D53" s="90"/>
-      <c r="E53" s="90"/>
-      <c r="F53" s="102">
+      <c r="A53" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" s="84"/>
+      <c r="C53" s="84"/>
+      <c r="D53" s="84"/>
+      <c r="E53" s="84"/>
+      <c r="F53" s="80">
         <f>SUM(F32:F52)</f>
         <v>2511000</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="54"/>
-      <c r="B54" s="55"/>
-      <c r="C54" s="55"/>
-      <c r="D54" s="55"/>
-      <c r="E54" s="55"/>
-      <c r="F54" s="56"/>
+      <c r="A54" s="49"/>
+      <c r="B54" s="50"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="50"/>
+      <c r="E54" s="50"/>
+      <c r="F54" s="51"/>
     </row>
     <row r="55" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="35"/>
-      <c r="B55" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
+      <c r="A55" s="33"/>
+      <c r="B55" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="35"/>
-      <c r="B56" s="34"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
+      <c r="A56" s="33"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
     </row>
     <row r="57" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="38">
-        <v>1</v>
-      </c>
-      <c r="B57" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="C57" s="7">
-        <v>1</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E57" s="12">
+      <c r="A57" s="36">
+        <v>1</v>
+      </c>
+      <c r="B57" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" s="6">
+        <v>1</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="11">
         <v>110000</v>
       </c>
-      <c r="F57" s="12">
+      <c r="F57" s="11">
         <f>E57*C57</f>
         <v>110000</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A58" s="38">
+      <c r="A58" s="36">
         <v>2</v>
       </c>
-      <c r="B58" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="C58" s="7">
-        <v>1</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E58" s="12">
+      <c r="B58" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" s="6">
+        <v>1</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="11">
         <v>120000</v>
       </c>
-      <c r="F58" s="12">
+      <c r="F58" s="11">
         <f t="shared" ref="F58:F77" si="2">E58*C58</f>
         <v>120000</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A59" s="38">
+      <c r="A59" s="36">
         <v>3</v>
       </c>
-      <c r="B59" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="C59" s="7">
-        <v>1</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E59" s="12">
+      <c r="B59" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59" s="6">
+        <v>1</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="11">
         <v>160000</v>
       </c>
-      <c r="F59" s="12">
+      <c r="F59" s="11">
         <f t="shared" si="2"/>
         <v>160000</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="38">
+      <c r="A60" s="36">
         <v>4</v>
       </c>
-      <c r="B60" s="76" t="s">
-        <v>121</v>
-      </c>
-      <c r="C60" s="7">
-        <v>1</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E60" s="12">
+      <c r="B60" s="71" t="s">
+        <v>101</v>
+      </c>
+      <c r="C60" s="6">
+        <v>1</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" s="11">
         <v>250000</v>
       </c>
-      <c r="F60" s="12">
+      <c r="F60" s="11">
         <f t="shared" si="2"/>
         <v>250000</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="38">
+      <c r="A61" s="36">
         <v>5</v>
       </c>
-      <c r="B61" s="76" t="s">
-        <v>123</v>
-      </c>
-      <c r="C61" s="7">
-        <v>1</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E61" s="12">
+      <c r="B61" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="C61" s="6">
+        <v>1</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="11">
         <v>500000</v>
       </c>
-      <c r="F61" s="12">
+      <c r="F61" s="11">
         <f t="shared" si="2"/>
         <v>500000</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="38">
+      <c r="A62" s="36">
         <v>6</v>
       </c>
-      <c r="B62" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="C62" s="7">
-        <v>1</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E62" s="12">
+      <c r="B62" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C62" s="6">
+        <v>1</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" s="11">
         <v>23000</v>
       </c>
-      <c r="F62" s="12">
+      <c r="F62" s="11">
         <f t="shared" si="2"/>
         <v>23000</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="38">
+      <c r="A63" s="36">
         <v>7</v>
       </c>
-      <c r="B63" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="C63" s="7">
-        <v>1</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E63" s="12">
+      <c r="B63" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C63" s="6">
+        <v>1</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" s="11">
         <v>40000</v>
       </c>
-      <c r="F63" s="12">
+      <c r="F63" s="11">
         <f t="shared" si="2"/>
         <v>40000</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="38">
+      <c r="A64" s="36">
         <v>8</v>
       </c>
-      <c r="B64" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="C64" s="7">
-        <v>1</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E64" s="12">
+      <c r="B64" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C64" s="6">
+        <v>1</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" s="11">
         <v>50000</v>
       </c>
-      <c r="F64" s="12">
+      <c r="F64" s="11">
         <f t="shared" si="2"/>
         <v>50000</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="38">
+      <c r="A65" s="36">
         <v>9</v>
       </c>
-      <c r="B65" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="C65" s="7">
-        <v>1</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E65" s="12">
+      <c r="B65" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C65" s="6">
+        <v>1</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" s="11">
         <v>50000</v>
       </c>
-      <c r="F65" s="12">
+      <c r="F65" s="11">
         <f t="shared" si="2"/>
         <v>50000</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="38">
+      <c r="A66" s="36">
         <v>10</v>
       </c>
-      <c r="B66" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="C66" s="7">
-        <v>1</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E66" s="12">
+      <c r="B66" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C66" s="6">
+        <v>1</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" s="11">
         <v>390000</v>
       </c>
-      <c r="F66" s="12">
+      <c r="F66" s="11">
         <f t="shared" si="2"/>
         <v>390000</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A67" s="38">
+      <c r="A67" s="36">
         <v>11</v>
       </c>
-      <c r="B67" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="C67" s="7">
-        <v>1</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E67" s="12">
+      <c r="B67" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C67" s="6">
+        <v>1</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" s="11">
         <v>120000</v>
       </c>
-      <c r="F67" s="12">
+      <c r="F67" s="11">
         <f t="shared" si="2"/>
         <v>120000</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="38">
+      <c r="A68" s="36">
         <v>12</v>
       </c>
-      <c r="B68" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="C68" s="7">
-        <v>1</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E68" s="12">
+      <c r="B68" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C68" s="6">
+        <v>1</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" s="11">
         <v>120000</v>
       </c>
-      <c r="F68" s="12">
+      <c r="F68" s="11">
         <f t="shared" si="2"/>
         <v>120000</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="38">
-        <v>13</v>
-      </c>
-      <c r="B69" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="C69" s="7">
-        <v>1</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E69" s="12">
+      <c r="A69" s="36">
+        <v>13</v>
+      </c>
+      <c r="B69" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C69" s="6">
+        <v>1</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" s="11">
         <v>35000</v>
       </c>
-      <c r="F69" s="12">
+      <c r="F69" s="11">
         <f t="shared" si="2"/>
         <v>35000</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A70" s="38">
+      <c r="A70" s="36">
         <v>14</v>
       </c>
-      <c r="B70" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="C70" s="7">
+      <c r="B70" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C70" s="6">
         <v>2</v>
       </c>
-      <c r="D70" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E70" s="12">
+      <c r="D70" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" s="11">
         <v>90000</v>
       </c>
-      <c r="F70" s="12">
+      <c r="F70" s="11">
         <f t="shared" si="2"/>
         <v>180000</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A71" s="38">
+      <c r="A71" s="36">
         <v>15</v>
       </c>
-      <c r="B71" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="C71" s="7">
-        <v>1</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E71" s="12">
+      <c r="B71" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C71" s="6">
+        <v>1</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" s="11">
         <v>95000</v>
       </c>
-      <c r="F71" s="12">
+      <c r="F71" s="11">
         <f t="shared" si="2"/>
         <v>95000</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="38">
+      <c r="A72" s="36">
         <v>16</v>
       </c>
-      <c r="B72" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="C72" s="7">
-        <v>1</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E72" s="12">
+      <c r="B72" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72" s="6">
+        <v>1</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E72" s="11">
         <v>28000</v>
       </c>
-      <c r="F72" s="12">
+      <c r="F72" s="11">
         <f t="shared" si="2"/>
         <v>28000</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="38">
+      <c r="A73" s="36">
         <v>17</v>
       </c>
-      <c r="B73" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="C73" s="7">
-        <v>1</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E73" s="12">
+      <c r="B73" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C73" s="6">
+        <v>1</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" s="11">
         <v>100000</v>
       </c>
-      <c r="F73" s="12">
+      <c r="F73" s="11">
         <f t="shared" si="2"/>
         <v>100000</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="38">
+      <c r="A74" s="36">
         <v>18</v>
       </c>
-      <c r="B74" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="C74" s="7">
-        <v>1</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E74" s="12">
+      <c r="B74" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C74" s="6">
+        <v>1</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" s="11">
         <v>15000</v>
       </c>
-      <c r="F74" s="12">
+      <c r="F74" s="11">
         <f t="shared" si="2"/>
         <v>15000</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="38">
+      <c r="A75" s="36">
         <v>19</v>
       </c>
-      <c r="B75" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="C75" s="7">
-        <v>1</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E75" s="12">
+      <c r="B75" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C75" s="6">
+        <v>1</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" s="11">
         <v>20000</v>
       </c>
-      <c r="F75" s="12">
+      <c r="F75" s="11">
         <f t="shared" si="2"/>
         <v>20000</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="38">
+      <c r="A76" s="36">
         <v>20</v>
       </c>
-      <c r="B76" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="C76" s="7">
-        <v>1</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E76" s="12">
+      <c r="B76" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C76" s="6">
+        <v>1</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" s="11">
         <v>35000</v>
       </c>
-      <c r="F76" s="12">
+      <c r="F76" s="11">
         <f t="shared" si="2"/>
         <v>35000</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="38">
+      <c r="A77" s="36">
         <v>21</v>
       </c>
-      <c r="B77" s="51" t="s">
-        <v>98</v>
-      </c>
-      <c r="C77" s="52">
+      <c r="B77" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77" s="47">
         <v>2</v>
       </c>
-      <c r="D77" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="E77" s="53">
+      <c r="D77" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="E77" s="48">
         <v>25000</v>
       </c>
-      <c r="F77" s="12">
+      <c r="F77" s="11">
         <f t="shared" si="2"/>
         <v>50000</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="89" t="s">
-        <v>20</v>
-      </c>
-      <c r="B78" s="90"/>
-      <c r="C78" s="90"/>
-      <c r="D78" s="90"/>
-      <c r="E78" s="90"/>
-      <c r="F78" s="102">
+      <c r="A78" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="B78" s="84"/>
+      <c r="C78" s="84"/>
+      <c r="D78" s="84"/>
+      <c r="E78" s="84"/>
+      <c r="F78" s="80">
         <f>SUM(F57:F77)</f>
         <v>2491000</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="35"/>
-      <c r="B80" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
+      <c r="A80" s="33"/>
+      <c r="B80" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="35"/>
-      <c r="B81" s="34"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="12"/>
+      <c r="A81" s="33"/>
+      <c r="B81" s="32"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
     </row>
     <row r="82" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A82" s="38">
-        <v>1</v>
-      </c>
-      <c r="B82" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="C82" s="7">
-        <v>1</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E82" s="12">
+      <c r="A82" s="36">
+        <v>1</v>
+      </c>
+      <c r="B82" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C82" s="6">
+        <v>1</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E82" s="11">
         <v>110000</v>
       </c>
-      <c r="F82" s="12">
+      <c r="F82" s="11">
         <f>E82*C82</f>
         <v>110000</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="38">
+      <c r="A83" s="36">
         <v>2</v>
       </c>
-      <c r="B83" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="C83" s="7">
-        <v>1</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E83" s="12">
+      <c r="B83" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C83" s="6">
+        <v>1</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E83" s="11">
         <v>120000</v>
       </c>
-      <c r="F83" s="12">
+      <c r="F83" s="11">
         <f t="shared" ref="F83:F102" si="3">E83*C83</f>
         <v>120000</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A84" s="38">
+      <c r="A84" s="36">
         <v>3</v>
       </c>
-      <c r="B84" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="C84" s="7">
-        <v>1</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E84" s="12">
+      <c r="B84" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C84" s="6">
+        <v>1</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E84" s="11">
         <v>160000</v>
       </c>
-      <c r="F84" s="12">
+      <c r="F84" s="11">
         <f t="shared" si="3"/>
         <v>160000</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="38">
+      <c r="A85" s="36">
         <v>4</v>
       </c>
-      <c r="B85" s="76" t="s">
-        <v>121</v>
-      </c>
-      <c r="C85" s="7">
-        <v>1</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E85" s="12">
+      <c r="B85" s="71" t="s">
+        <v>101</v>
+      </c>
+      <c r="C85" s="6">
+        <v>1</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" s="11">
         <v>250000</v>
       </c>
-      <c r="F85" s="12">
+      <c r="F85" s="11">
         <f t="shared" si="3"/>
         <v>250000</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="38">
+      <c r="A86" s="36">
         <v>5</v>
       </c>
-      <c r="B86" s="76" t="s">
-        <v>123</v>
-      </c>
-      <c r="C86" s="7">
-        <v>1</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E86" s="12">
+      <c r="B86" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="C86" s="6">
+        <v>1</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" s="11">
         <v>500000</v>
       </c>
-      <c r="F86" s="12">
+      <c r="F86" s="11">
         <f t="shared" si="3"/>
         <v>500000</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="38">
+      <c r="A87" s="36">
         <v>6</v>
       </c>
-      <c r="B87" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="C87" s="7">
-        <v>1</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E87" s="12">
+      <c r="B87" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C87" s="6">
+        <v>1</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" s="11">
         <v>23000</v>
       </c>
-      <c r="F87" s="12">
+      <c r="F87" s="11">
         <f t="shared" si="3"/>
         <v>23000</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="38">
+      <c r="A88" s="36">
         <v>7</v>
       </c>
-      <c r="B88" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="C88" s="7">
-        <v>1</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E88" s="12">
+      <c r="B88" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C88" s="6">
+        <v>1</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88" s="11">
         <v>40000</v>
       </c>
-      <c r="F88" s="12">
+      <c r="F88" s="11">
         <f t="shared" si="3"/>
         <v>40000</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="38">
+      <c r="A89" s="36">
         <v>8</v>
       </c>
-      <c r="B89" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="C89" s="7">
-        <v>1</v>
-      </c>
-      <c r="D89" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E89" s="12">
+      <c r="B89" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C89" s="6">
+        <v>1</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89" s="11">
         <v>50000</v>
       </c>
-      <c r="F89" s="12">
+      <c r="F89" s="11">
         <f t="shared" si="3"/>
         <v>50000</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="38">
+      <c r="A90" s="36">
         <v>9</v>
       </c>
-      <c r="B90" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="C90" s="7">
-        <v>1</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E90" s="12">
+      <c r="B90" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C90" s="6">
+        <v>1</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90" s="11">
         <v>50000</v>
       </c>
-      <c r="F90" s="12">
+      <c r="F90" s="11">
         <f t="shared" si="3"/>
         <v>50000</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="38">
+      <c r="A91" s="36">
         <v>10</v>
       </c>
-      <c r="B91" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="C91" s="7">
-        <v>1</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E91" s="12">
+      <c r="B91" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C91" s="6">
+        <v>1</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E91" s="11">
         <v>390000</v>
       </c>
-      <c r="F91" s="12">
+      <c r="F91" s="11">
         <f t="shared" si="3"/>
         <v>390000</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A92" s="38">
+      <c r="A92" s="36">
         <v>11</v>
       </c>
-      <c r="B92" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="C92" s="7">
-        <v>1</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E92" s="12">
+      <c r="B92" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C92" s="6">
+        <v>1</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E92" s="11">
         <v>120000</v>
       </c>
-      <c r="F92" s="12">
+      <c r="F92" s="11">
         <f t="shared" si="3"/>
         <v>120000</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="38">
+      <c r="A93" s="36">
         <v>12</v>
       </c>
-      <c r="B93" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="C93" s="7">
-        <v>1</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E93" s="12">
+      <c r="B93" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C93" s="6">
+        <v>1</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E93" s="11">
         <v>120000</v>
       </c>
-      <c r="F93" s="12">
+      <c r="F93" s="11">
         <f t="shared" si="3"/>
         <v>120000</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="38">
-        <v>13</v>
-      </c>
-      <c r="B94" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="C94" s="7">
-        <v>1</v>
-      </c>
-      <c r="D94" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E94" s="12">
+      <c r="A94" s="36">
+        <v>13</v>
+      </c>
+      <c r="B94" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C94" s="6">
+        <v>1</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E94" s="11">
         <v>35000</v>
       </c>
-      <c r="F94" s="12">
+      <c r="F94" s="11">
         <f t="shared" si="3"/>
         <v>35000</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A95" s="38">
+      <c r="A95" s="36">
         <v>14</v>
       </c>
-      <c r="B95" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="C95" s="7">
+      <c r="B95" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C95" s="6">
         <v>2</v>
       </c>
-      <c r="D95" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E95" s="12">
+      <c r="D95" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E95" s="11">
         <v>90000</v>
       </c>
-      <c r="F95" s="12">
+      <c r="F95" s="11">
         <f t="shared" si="3"/>
         <v>180000</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A96" s="38">
+      <c r="A96" s="36">
         <v>15</v>
       </c>
-      <c r="B96" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="C96" s="7">
-        <v>1</v>
-      </c>
-      <c r="D96" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E96" s="12">
+      <c r="B96" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C96" s="6">
+        <v>1</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E96" s="11">
         <v>95000</v>
       </c>
-      <c r="F96" s="12">
+      <c r="F96" s="11">
         <f t="shared" si="3"/>
         <v>95000</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="38">
+      <c r="A97" s="36">
         <v>16</v>
       </c>
-      <c r="B97" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="C97" s="7">
-        <v>1</v>
-      </c>
-      <c r="D97" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E97" s="12">
+      <c r="B97" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C97" s="6">
+        <v>1</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E97" s="11">
         <v>28000</v>
       </c>
-      <c r="F97" s="12">
+      <c r="F97" s="11">
         <f t="shared" si="3"/>
         <v>28000</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="38">
+      <c r="A98" s="36">
         <v>17</v>
       </c>
-      <c r="B98" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="C98" s="7">
-        <v>1</v>
-      </c>
-      <c r="D98" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E98" s="12">
+      <c r="B98" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C98" s="6">
+        <v>1</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E98" s="11">
         <v>100000</v>
       </c>
-      <c r="F98" s="12">
+      <c r="F98" s="11">
         <f t="shared" si="3"/>
         <v>100000</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="38">
+      <c r="A99" s="36">
         <v>18</v>
       </c>
-      <c r="B99" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="C99" s="7">
-        <v>1</v>
-      </c>
-      <c r="D99" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E99" s="12">
+      <c r="B99" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C99" s="6">
+        <v>1</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E99" s="11">
         <v>15000</v>
       </c>
-      <c r="F99" s="12">
+      <c r="F99" s="11">
         <f t="shared" si="3"/>
         <v>15000</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="38">
+      <c r="A100" s="36">
         <v>19</v>
       </c>
-      <c r="B100" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="C100" s="7">
-        <v>1</v>
-      </c>
-      <c r="D100" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E100" s="12">
+      <c r="B100" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C100" s="6">
+        <v>1</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E100" s="11">
         <v>20000</v>
       </c>
-      <c r="F100" s="12">
+      <c r="F100" s="11">
         <f t="shared" si="3"/>
         <v>20000</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="38">
+      <c r="A101" s="36">
         <v>20</v>
       </c>
-      <c r="B101" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="C101" s="7">
-        <v>1</v>
-      </c>
-      <c r="D101" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E101" s="12">
+      <c r="B101" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C101" s="6">
+        <v>1</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E101" s="11">
         <v>35000</v>
       </c>
-      <c r="F101" s="12">
+      <c r="F101" s="11">
         <f t="shared" si="3"/>
         <v>35000</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="38">
+      <c r="A102" s="36">
         <v>21</v>
       </c>
-      <c r="B102" s="51" t="s">
-        <v>98</v>
-      </c>
-      <c r="C102" s="52">
+      <c r="B102" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C102" s="47">
         <v>2</v>
       </c>
-      <c r="D102" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="E102" s="53">
+      <c r="D102" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="E102" s="48">
         <v>25000</v>
       </c>
-      <c r="F102" s="12">
+      <c r="F102" s="11">
         <f t="shared" si="3"/>
         <v>50000</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="89" t="s">
-        <v>20</v>
-      </c>
-      <c r="B103" s="90"/>
-      <c r="C103" s="90"/>
-      <c r="D103" s="90"/>
-      <c r="E103" s="90"/>
-      <c r="F103" s="102">
+      <c r="A103" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="B103" s="84"/>
+      <c r="C103" s="84"/>
+      <c r="D103" s="84"/>
+      <c r="E103" s="84"/>
+      <c r="F103" s="80">
         <f>SUM(F82:F102)</f>
         <v>2491000</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="35"/>
-      <c r="B106" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="C106" s="7"/>
-      <c r="D106" s="7"/>
+      <c r="A106" s="33"/>
+      <c r="B106" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="35"/>
-      <c r="B107" s="34"/>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="12"/>
-      <c r="F107" s="12"/>
+      <c r="A107" s="33"/>
+      <c r="B107" s="32"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="11"/>
+      <c r="F107" s="11"/>
     </row>
     <row r="108" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A108" s="38">
-        <v>1</v>
-      </c>
-      <c r="B108" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="C108" s="7">
-        <v>1</v>
-      </c>
-      <c r="D108" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E108" s="12">
+      <c r="A108" s="36">
+        <v>1</v>
+      </c>
+      <c r="B108" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C108" s="6">
+        <v>1</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E108" s="11">
         <v>35000</v>
       </c>
-      <c r="F108" s="12">
+      <c r="F108" s="11">
         <f>E108*C108</f>
         <v>35000</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A109" s="38">
+      <c r="A109" s="36">
         <v>2</v>
       </c>
-      <c r="B109" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="C109" s="7">
-        <v>1</v>
-      </c>
-      <c r="D109" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E109" s="12">
+      <c r="B109" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C109" s="6">
+        <v>1</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E109" s="11">
         <v>50000</v>
       </c>
-      <c r="F109" s="12">
+      <c r="F109" s="11">
         <f t="shared" ref="F109:F139" si="4">E109*C109</f>
         <v>50000</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A110" s="38">
+      <c r="A110" s="36">
         <v>3</v>
       </c>
-      <c r="B110" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="C110" s="7">
-        <v>1</v>
-      </c>
-      <c r="D110" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E110" s="12">
+      <c r="B110" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C110" s="6">
+        <v>1</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E110" s="11">
         <v>55000</v>
       </c>
-      <c r="F110" s="12">
+      <c r="F110" s="11">
         <f t="shared" si="4"/>
         <v>55000</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="38">
+      <c r="A111" s="36">
         <v>4</v>
       </c>
-      <c r="B111" s="76" t="s">
-        <v>122</v>
-      </c>
-      <c r="C111" s="7">
-        <v>1</v>
-      </c>
-      <c r="D111" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E111" s="12">
+      <c r="B111" s="71" t="s">
+        <v>102</v>
+      </c>
+      <c r="C111" s="6">
+        <v>1</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E111" s="11">
         <v>110000</v>
       </c>
-      <c r="F111" s="12">
+      <c r="F111" s="11">
         <f t="shared" si="4"/>
         <v>110000</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="38">
+      <c r="A112" s="36">
         <v>5</v>
       </c>
-      <c r="B112" s="76" t="s">
-        <v>123</v>
-      </c>
-      <c r="C112" s="7">
-        <v>1</v>
-      </c>
-      <c r="D112" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E112" s="12">
+      <c r="B112" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="C112" s="6">
+        <v>1</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E112" s="11">
         <v>500000</v>
       </c>
-      <c r="F112" s="12">
+      <c r="F112" s="11">
         <f t="shared" si="4"/>
         <v>500000</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="38">
+      <c r="A113" s="36">
         <v>6</v>
       </c>
-      <c r="B113" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="C113" s="7">
-        <v>1</v>
-      </c>
-      <c r="D113" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E113" s="12">
+      <c r="B113" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C113" s="6">
+        <v>1</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E113" s="11">
         <v>13000</v>
       </c>
-      <c r="F113" s="12">
+      <c r="F113" s="11">
         <f t="shared" si="4"/>
         <v>13000</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A114" s="38">
+      <c r="A114" s="36">
         <v>7</v>
       </c>
-      <c r="B114" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="C114" s="7">
-        <v>1</v>
-      </c>
-      <c r="D114" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E114" s="12">
+      <c r="B114" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C114" s="6">
+        <v>1</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E114" s="11">
         <v>30000</v>
       </c>
-      <c r="F114" s="12">
+      <c r="F114" s="11">
         <f t="shared" si="4"/>
         <v>30000</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="38">
+      <c r="A115" s="36">
         <v>8</v>
       </c>
-      <c r="B115" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="C115" s="7">
-        <v>1</v>
-      </c>
-      <c r="D115" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E115" s="12">
+      <c r="B115" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C115" s="6">
+        <v>1</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E115" s="11">
         <v>90000</v>
       </c>
-      <c r="F115" s="12">
+      <c r="F115" s="11">
         <f t="shared" si="4"/>
         <v>90000</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A116" s="38">
+      <c r="A116" s="36">
         <v>9</v>
       </c>
-      <c r="B116" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="C116" s="7">
-        <v>1</v>
-      </c>
-      <c r="D116" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E116" s="12">
+      <c r="B116" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C116" s="6">
+        <v>1</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E116" s="11">
         <v>50000</v>
       </c>
-      <c r="F116" s="12">
+      <c r="F116" s="11">
         <f t="shared" si="4"/>
         <v>50000</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="38">
+      <c r="A117" s="36">
         <v>10</v>
       </c>
-      <c r="B117" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="C117" s="7">
-        <v>1</v>
-      </c>
-      <c r="D117" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E117" s="12">
+      <c r="B117" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C117" s="6">
+        <v>1</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E117" s="11">
         <v>105000</v>
       </c>
-      <c r="F117" s="12">
+      <c r="F117" s="11">
         <f t="shared" si="4"/>
         <v>105000</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A118" s="38">
+      <c r="A118" s="36">
         <v>11</v>
       </c>
-      <c r="B118" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="C118" s="7">
-        <v>1</v>
-      </c>
-      <c r="D118" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E118" s="12">
+      <c r="B118" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C118" s="6">
+        <v>1</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E118" s="11">
         <v>30000</v>
       </c>
-      <c r="F118" s="12">
+      <c r="F118" s="11">
         <f t="shared" si="4"/>
         <v>30000</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="38">
+      <c r="A119" s="36">
         <v>12</v>
       </c>
-      <c r="B119" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="C119" s="7">
-        <v>1</v>
-      </c>
-      <c r="D119" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E119" s="12">
+      <c r="B119" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C119" s="6">
+        <v>1</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E119" s="11">
         <v>100000</v>
       </c>
-      <c r="F119" s="12">
+      <c r="F119" s="11">
         <f t="shared" si="4"/>
         <v>100000</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="38">
-        <v>13</v>
-      </c>
-      <c r="B120" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="C120" s="7">
-        <v>1</v>
-      </c>
-      <c r="D120" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E120" s="12">
+      <c r="A120" s="36">
+        <v>13</v>
+      </c>
+      <c r="B120" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C120" s="6">
+        <v>1</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E120" s="11">
         <v>40000</v>
       </c>
-      <c r="F120" s="12">
+      <c r="F120" s="11">
         <f t="shared" si="4"/>
         <v>40000</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A121" s="38">
+      <c r="A121" s="36">
         <v>14</v>
       </c>
-      <c r="B121" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="C121" s="7">
+      <c r="B121" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C121" s="6">
         <v>2</v>
       </c>
-      <c r="D121" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E121" s="12">
+      <c r="D121" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E121" s="11">
         <v>90000</v>
       </c>
-      <c r="F121" s="12">
+      <c r="F121" s="11">
         <f t="shared" si="4"/>
         <v>180000</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A122" s="38">
+      <c r="A122" s="36">
         <v>15</v>
       </c>
-      <c r="B122" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="C122" s="7">
-        <v>1</v>
-      </c>
-      <c r="D122" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E122" s="12">
+      <c r="B122" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C122" s="6">
+        <v>1</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E122" s="11">
         <v>85000</v>
       </c>
-      <c r="F122" s="12">
+      <c r="F122" s="11">
         <f t="shared" si="4"/>
         <v>85000</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A123" s="38">
+      <c r="A123" s="36">
         <v>16</v>
       </c>
-      <c r="B123" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="C123" s="7">
-        <v>1</v>
-      </c>
-      <c r="D123" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E123" s="12">
+      <c r="B123" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C123" s="6">
+        <v>1</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E123" s="11">
         <v>15000</v>
       </c>
-      <c r="F123" s="12">
+      <c r="F123" s="11">
         <f t="shared" si="4"/>
         <v>15000</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A124" s="38">
+      <c r="A124" s="36">
         <v>17</v>
       </c>
-      <c r="B124" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="C124" s="7">
-        <v>1</v>
-      </c>
-      <c r="D124" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E124" s="12">
+      <c r="B124" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C124" s="6">
+        <v>1</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E124" s="11">
         <v>87000</v>
       </c>
-      <c r="F124" s="12">
+      <c r="F124" s="11">
         <f t="shared" si="4"/>
         <v>87000</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="38">
+      <c r="A125" s="36">
         <v>18</v>
       </c>
-      <c r="B125" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="C125" s="7">
-        <v>1</v>
-      </c>
-      <c r="D125" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E125" s="12">
+      <c r="B125" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C125" s="6">
+        <v>1</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E125" s="11">
         <v>13000</v>
       </c>
-      <c r="F125" s="12">
+      <c r="F125" s="11">
         <f t="shared" si="4"/>
         <v>13000</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="38">
+      <c r="A126" s="36">
         <v>19</v>
       </c>
-      <c r="B126" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="C126" s="7">
-        <v>1</v>
-      </c>
-      <c r="D126" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E126" s="12">
+      <c r="B126" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C126" s="6">
+        <v>1</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E126" s="11">
         <v>20000</v>
       </c>
-      <c r="F126" s="12">
+      <c r="F126" s="11">
         <f t="shared" si="4"/>
         <v>20000</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A127" s="38">
+      <c r="A127" s="36">
         <v>20</v>
       </c>
-      <c r="B127" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="C127" s="7">
-        <v>1</v>
-      </c>
-      <c r="D127" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E127" s="12">
+      <c r="B127" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C127" s="6">
+        <v>1</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E127" s="11">
         <v>53000</v>
       </c>
-      <c r="F127" s="12">
+      <c r="F127" s="11">
         <f t="shared" si="4"/>
         <v>53000</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="38">
+      <c r="A128" s="36">
         <v>21</v>
       </c>
-      <c r="B128" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="C128" s="7">
+      <c r="B128" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C128" s="6">
         <v>2</v>
       </c>
-      <c r="D128" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E128" s="12">
+      <c r="D128" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E128" s="11">
         <v>25000</v>
       </c>
-      <c r="F128" s="12">
+      <c r="F128" s="11">
         <f t="shared" si="4"/>
         <v>50000</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="38">
+      <c r="A129" s="36">
         <v>22</v>
       </c>
-      <c r="B129" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="C129" s="7">
-        <v>1</v>
-      </c>
-      <c r="D129" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E129" s="12">
+      <c r="B129" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C129" s="6">
+        <v>1</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E129" s="11">
         <v>80000</v>
       </c>
-      <c r="F129" s="12">
+      <c r="F129" s="11">
         <f t="shared" si="4"/>
         <v>80000</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="38">
+      <c r="A130" s="36">
         <v>23</v>
       </c>
-      <c r="B130" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="C130" s="7">
-        <v>1</v>
-      </c>
-      <c r="D130" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E130" s="12">
+      <c r="B130" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C130" s="6">
+        <v>1</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E130" s="11">
         <v>30000</v>
       </c>
-      <c r="F130" s="12">
+      <c r="F130" s="11">
         <f t="shared" si="4"/>
         <v>30000</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="38">
+      <c r="A131" s="36">
         <v>24</v>
       </c>
-      <c r="B131" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="C131" s="7">
+      <c r="B131" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C131" s="6">
         <v>1200</v>
       </c>
-      <c r="D131" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E131" s="12">
+      <c r="D131" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E131" s="11">
         <v>500</v>
       </c>
-      <c r="F131" s="12">
+      <c r="F131" s="11">
         <f t="shared" si="4"/>
         <v>600000</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="38">
+      <c r="A132" s="36">
         <v>25</v>
       </c>
-      <c r="B132" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="C132" s="7">
+      <c r="B132" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C132" s="6">
         <v>1200</v>
       </c>
-      <c r="D132" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E132" s="12">
+      <c r="D132" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E132" s="11">
         <v>500</v>
       </c>
-      <c r="F132" s="12">
+      <c r="F132" s="11">
         <f t="shared" si="4"/>
         <v>600000</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="38">
+      <c r="A133" s="36">
         <v>26</v>
       </c>
-      <c r="B133" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="C133" s="7">
-        <v>1</v>
-      </c>
-      <c r="D133" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E133" s="12">
+      <c r="B133" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C133" s="6">
+        <v>1</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E133" s="11">
         <v>190000</v>
       </c>
-      <c r="F133" s="12">
+      <c r="F133" s="11">
         <f t="shared" si="4"/>
         <v>190000</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="38">
+      <c r="A134" s="36">
         <v>27</v>
       </c>
-      <c r="B134" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="C134" s="7">
+      <c r="B134" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C134" s="6">
         <v>1600</v>
       </c>
-      <c r="D134" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E134" s="12">
+      <c r="D134" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E134" s="11">
         <v>33</v>
       </c>
-      <c r="F134" s="12">
+      <c r="F134" s="11">
         <f t="shared" si="4"/>
         <v>52800</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="38">
+      <c r="A135" s="36">
         <v>28</v>
       </c>
-      <c r="B135" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="C135" s="7">
+      <c r="B135" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C135" s="6">
         <v>1600</v>
       </c>
-      <c r="D135" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E135" s="12">
+      <c r="D135" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E135" s="11">
         <v>30</v>
       </c>
-      <c r="F135" s="12">
+      <c r="F135" s="11">
         <f t="shared" si="4"/>
         <v>48000</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="38">
+      <c r="A136" s="36">
         <v>29</v>
       </c>
-      <c r="B136" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="C136" s="7">
-        <v>1</v>
-      </c>
-      <c r="D136" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E136" s="12">
+      <c r="B136" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C136" s="6">
+        <v>1</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E136" s="11">
         <v>285000</v>
       </c>
-      <c r="F136" s="12">
+      <c r="F136" s="11">
         <f t="shared" si="4"/>
         <v>285000</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="38">
+      <c r="A137" s="36">
         <v>30</v>
       </c>
-      <c r="B137" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="C137" s="7">
-        <v>1</v>
-      </c>
-      <c r="D137" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E137" s="12">
+      <c r="B137" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C137" s="6">
+        <v>1</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E137" s="11">
         <v>75000</v>
       </c>
-      <c r="F137" s="12">
+      <c r="F137" s="11">
         <f t="shared" si="4"/>
         <v>75000</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="38">
+      <c r="A138" s="36">
         <v>31</v>
       </c>
-      <c r="B138" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="C138" s="7">
-        <v>1</v>
-      </c>
-      <c r="D138" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E138" s="12">
+      <c r="B138" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C138" s="6">
+        <v>1</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E138" s="11">
         <v>40000</v>
       </c>
-      <c r="F138" s="12">
+      <c r="F138" s="11">
         <f t="shared" si="4"/>
         <v>40000</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="38">
+      <c r="A139" s="36">
         <v>32</v>
       </c>
-      <c r="B139" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="C139" s="52">
-        <v>1</v>
-      </c>
-      <c r="D139" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="E139" s="53">
+      <c r="B139" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="C139" s="47">
+        <v>1</v>
+      </c>
+      <c r="D139" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E139" s="48">
         <v>25000</v>
       </c>
-      <c r="F139" s="12">
+      <c r="F139" s="11">
         <f t="shared" si="4"/>
         <v>25000</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="89" t="s">
-        <v>20</v>
-      </c>
-      <c r="B140" s="90"/>
-      <c r="C140" s="90"/>
-      <c r="D140" s="90"/>
-      <c r="E140" s="90"/>
-      <c r="F140" s="102">
+      <c r="A140" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="B140" s="84"/>
+      <c r="C140" s="84"/>
+      <c r="D140" s="84"/>
+      <c r="E140" s="84"/>
+      <c r="F140" s="80">
         <f>SUM(F108:F139)</f>
         <v>3736800</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A142" s="35"/>
-      <c r="B142" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="C142" s="7"/>
-      <c r="D142" s="7"/>
+      <c r="A142" s="33"/>
+      <c r="B142" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C142" s="6"/>
+      <c r="D142" s="6"/>
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="35"/>
-      <c r="B143" s="34"/>
-      <c r="C143" s="7"/>
-      <c r="D143" s="7"/>
-      <c r="E143" s="12"/>
-      <c r="F143" s="12"/>
+      <c r="A143" s="33"/>
+      <c r="B143" s="32"/>
+      <c r="C143" s="6"/>
+      <c r="D143" s="6"/>
+      <c r="E143" s="11"/>
+      <c r="F143" s="11"/>
     </row>
     <row r="144" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A144" s="38">
-        <v>1</v>
-      </c>
-      <c r="B144" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="C144" s="7">
+      <c r="A144" s="36">
+        <v>1</v>
+      </c>
+      <c r="B144" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C144" s="6">
         <v>2</v>
       </c>
-      <c r="D144" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E144" s="12">
+      <c r="D144" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E144" s="11">
         <v>85000</v>
       </c>
-      <c r="F144" s="12">
+      <c r="F144" s="11">
         <f t="shared" ref="F144:F149" si="5">E144*C144</f>
         <v>170000</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A145" s="38">
+      <c r="A145" s="36">
         <v>2</v>
       </c>
-      <c r="B145" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="C145" s="7">
+      <c r="B145" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C145" s="6">
         <v>2</v>
       </c>
-      <c r="D145" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E145" s="12">
+      <c r="D145" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E145" s="11">
         <v>24500</v>
       </c>
-      <c r="F145" s="12">
+      <c r="F145" s="11">
         <f t="shared" si="5"/>
         <v>49000</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A146" s="38">
+      <c r="A146" s="36">
         <v>3</v>
       </c>
-      <c r="B146" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="C146" s="7">
+      <c r="B146" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C146" s="6">
         <v>2</v>
       </c>
-      <c r="D146" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E146" s="12">
+      <c r="D146" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E146" s="11">
         <v>55000</v>
       </c>
-      <c r="F146" s="12">
+      <c r="F146" s="11">
         <f t="shared" si="5"/>
         <v>110000</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="38">
+      <c r="A147" s="36">
         <v>4</v>
       </c>
-      <c r="B147" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="C147" s="7">
+      <c r="B147" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C147" s="6">
         <v>2</v>
       </c>
-      <c r="D147" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E147" s="12">
+      <c r="D147" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E147" s="11">
         <v>17000</v>
       </c>
-      <c r="F147" s="12">
+      <c r="F147" s="11">
         <f t="shared" si="5"/>
         <v>34000</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A148" s="38">
+      <c r="A148" s="36">
         <v>5</v>
       </c>
-      <c r="B148" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="C148" s="7">
+      <c r="B148" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C148" s="6">
         <v>2</v>
       </c>
-      <c r="D148" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E148" s="12">
+      <c r="D148" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E148" s="11">
         <v>55000</v>
       </c>
-      <c r="F148" s="12">
+      <c r="F148" s="11">
         <f t="shared" si="5"/>
         <v>110000</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="50">
+      <c r="A149" s="45">
         <v>6</v>
       </c>
-      <c r="B149" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="C149" s="52">
+      <c r="B149" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="C149" s="47">
         <v>2</v>
       </c>
-      <c r="D149" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="E149" s="53">
+      <c r="D149" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E149" s="48">
         <v>17000</v>
       </c>
-      <c r="F149" s="12">
+      <c r="F149" s="11">
         <f t="shared" si="5"/>
         <v>34000</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="89" t="s">
-        <v>20</v>
-      </c>
-      <c r="B150" s="90"/>
-      <c r="C150" s="90"/>
-      <c r="D150" s="90"/>
-      <c r="E150" s="90"/>
-      <c r="F150" s="102">
+      <c r="A150" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="B150" s="84"/>
+      <c r="C150" s="84"/>
+      <c r="D150" s="84"/>
+      <c r="E150" s="84"/>
+      <c r="F150" s="80">
         <f>SUM(F144:F149)</f>
         <v>507000</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A152" s="35"/>
-      <c r="B152" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="C152" s="7"/>
-      <c r="D152" s="7"/>
+      <c r="A152" s="33"/>
+      <c r="B152" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C152" s="6"/>
+      <c r="D152" s="6"/>
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="35"/>
-      <c r="B153" s="34"/>
-      <c r="C153" s="7"/>
-      <c r="D153" s="7"/>
-      <c r="E153" s="12"/>
-      <c r="F153" s="12"/>
+      <c r="A153" s="33"/>
+      <c r="B153" s="32"/>
+      <c r="C153" s="6"/>
+      <c r="D153" s="6"/>
+      <c r="E153" s="11"/>
+      <c r="F153" s="11"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="38">
-        <v>1</v>
-      </c>
-      <c r="B154" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="C154" s="7">
-        <v>1</v>
-      </c>
-      <c r="D154" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E154" s="12">
+      <c r="A154" s="36">
+        <v>1</v>
+      </c>
+      <c r="B154" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C154" s="6">
+        <v>1</v>
+      </c>
+      <c r="D154" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E154" s="11">
         <v>50000</v>
       </c>
-      <c r="F154" s="12">
+      <c r="F154" s="11">
         <f t="shared" ref="F154:F163" si="6">E154*C154</f>
         <v>50000</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" s="38">
+      <c r="A155" s="36">
         <v>2</v>
       </c>
-      <c r="B155" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="C155" s="7">
-        <v>1</v>
-      </c>
-      <c r="D155" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E155" s="12">
+      <c r="B155" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="C155" s="6">
+        <v>1</v>
+      </c>
+      <c r="D155" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E155" s="11">
         <v>40000</v>
       </c>
-      <c r="F155" s="12">
+      <c r="F155" s="11">
         <f t="shared" si="6"/>
         <v>40000</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A156" s="38">
+      <c r="A156" s="36">
         <v>3</v>
       </c>
-      <c r="B156" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="C156" s="7">
+      <c r="B156" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C156" s="6">
         <v>2</v>
       </c>
-      <c r="D156" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E156" s="12">
+      <c r="D156" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E156" s="11">
         <v>55000</v>
       </c>
-      <c r="F156" s="12">
+      <c r="F156" s="11">
         <f t="shared" si="6"/>
         <v>110000</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A157" s="38">
+      <c r="A157" s="36">
         <v>4</v>
       </c>
-      <c r="B157" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="C157" s="7">
-        <v>1</v>
-      </c>
-      <c r="D157" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E157" s="12">
+      <c r="B157" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C157" s="6">
+        <v>1</v>
+      </c>
+      <c r="D157" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E157" s="11">
         <v>80000</v>
       </c>
-      <c r="F157" s="12">
+      <c r="F157" s="11">
         <f t="shared" si="6"/>
         <v>80000</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="38">
+      <c r="A158" s="36">
         <v>5</v>
       </c>
-      <c r="B158" s="41" t="s">
+      <c r="B158" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C158" s="7">
-        <v>1</v>
-      </c>
-      <c r="D158" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E158" s="12">
+      <c r="C158" s="6">
+        <v>1</v>
+      </c>
+      <c r="D158" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E158" s="11">
         <v>25000</v>
       </c>
-      <c r="F158" s="12">
+      <c r="F158" s="11">
         <f t="shared" si="6"/>
         <v>25000</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A159" s="38">
+      <c r="A159" s="36">
         <v>6</v>
       </c>
-      <c r="B159" s="41" t="s">
+      <c r="B159" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C159" s="7">
-        <v>1</v>
-      </c>
-      <c r="D159" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E159" s="12">
+      <c r="C159" s="6">
+        <v>1</v>
+      </c>
+      <c r="D159" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E159" s="11">
         <v>50000</v>
       </c>
-      <c r="F159" s="12">
+      <c r="F159" s="11">
         <f t="shared" si="6"/>
         <v>50000</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="38">
+      <c r="A160" s="36">
         <v>7</v>
       </c>
-      <c r="B160" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C160" s="7">
-        <v>1</v>
-      </c>
-      <c r="D160" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E160" s="12">
+      <c r="B160" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C160" s="6">
+        <v>1</v>
+      </c>
+      <c r="D160" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E160" s="11">
         <v>20000</v>
       </c>
-      <c r="F160" s="12">
+      <c r="F160" s="11">
         <f t="shared" si="6"/>
         <v>20000</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="38">
+      <c r="A161" s="36">
         <v>8</v>
       </c>
-      <c r="B161" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="C161" s="7">
-        <v>1</v>
-      </c>
-      <c r="D161" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E161" s="12">
+      <c r="B161" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C161" s="6">
+        <v>1</v>
+      </c>
+      <c r="D161" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E161" s="11">
         <v>70000</v>
       </c>
-      <c r="F161" s="12">
+      <c r="F161" s="11">
         <f t="shared" si="6"/>
         <v>70000</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="38">
+      <c r="A162" s="36">
         <v>9</v>
       </c>
-      <c r="B162" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="C162" s="7">
-        <v>1</v>
-      </c>
-      <c r="D162" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E162" s="12">
+      <c r="B162" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C162" s="6">
+        <v>1</v>
+      </c>
+      <c r="D162" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E162" s="11">
         <v>155000</v>
       </c>
-      <c r="F162" s="12">
+      <c r="F162" s="11">
         <f t="shared" si="6"/>
         <v>155000</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="50">
+      <c r="A163" s="45">
         <v>10</v>
       </c>
-      <c r="B163" s="51" t="s">
+      <c r="B163" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C163" s="52">
-        <v>1</v>
-      </c>
-      <c r="D163" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="E163" s="53">
+      <c r="C163" s="47">
+        <v>1</v>
+      </c>
+      <c r="D163" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="E163" s="48">
         <v>50000</v>
       </c>
-      <c r="F163" s="12">
+      <c r="F163" s="11">
         <f t="shared" si="6"/>
         <v>50000</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="89" t="s">
-        <v>20</v>
-      </c>
-      <c r="B164" s="90"/>
-      <c r="C164" s="90"/>
-      <c r="D164" s="90"/>
-      <c r="E164" s="90"/>
-      <c r="F164" s="102">
+      <c r="A164" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="B164" s="84"/>
+      <c r="C164" s="84"/>
+      <c r="D164" s="84"/>
+      <c r="E164" s="84"/>
+      <c r="F164" s="80">
         <f>SUM(F154:F163)</f>
         <v>650000</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A166" s="35"/>
-      <c r="B166" s="49" t="s">
+      <c r="A166" s="33"/>
+      <c r="B166" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C166" s="7"/>
-      <c r="D166" s="7"/>
+      <c r="C166" s="6"/>
+      <c r="D166" s="6"/>
       <c r="E166" s="4"/>
       <c r="F166" s="4"/>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" s="35"/>
-      <c r="B167" s="34"/>
-      <c r="C167" s="7"/>
-      <c r="D167" s="7"/>
-      <c r="E167" s="12"/>
-      <c r="F167" s="12"/>
+      <c r="A167" s="33"/>
+      <c r="B167" s="32"/>
+      <c r="C167" s="6"/>
+      <c r="D167" s="6"/>
+      <c r="E167" s="11"/>
+      <c r="F167" s="11"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" s="38">
-        <v>1</v>
-      </c>
-      <c r="B168" s="36" t="s">
+      <c r="A168" s="36">
+        <v>1</v>
+      </c>
+      <c r="B168" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C168" s="7">
-        <v>1</v>
-      </c>
-      <c r="D168" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E168" s="12">
+      <c r="C168" s="6">
+        <v>1</v>
+      </c>
+      <c r="D168" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E168" s="11">
         <v>20000</v>
       </c>
-      <c r="F168" s="12">
+      <c r="F168" s="11">
         <f t="shared" ref="F168:F173" si="7">E168*C168</f>
         <v>20000</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" s="38">
+      <c r="A169" s="36">
         <v>2</v>
       </c>
-      <c r="B169" s="36" t="s">
+      <c r="B169" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C169" s="7">
-        <v>1</v>
-      </c>
-      <c r="D169" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E169" s="12">
+      <c r="C169" s="6">
+        <v>1</v>
+      </c>
+      <c r="D169" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E169" s="11">
         <v>20000</v>
       </c>
-      <c r="F169" s="12">
+      <c r="F169" s="11">
         <f t="shared" si="7"/>
         <v>20000</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" s="38">
+      <c r="A170" s="36">
         <v>3</v>
       </c>
-      <c r="B170" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="C170" s="7">
-        <v>1</v>
-      </c>
-      <c r="D170" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E170" s="12">
+      <c r="B170" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C170" s="6">
+        <v>1</v>
+      </c>
+      <c r="D170" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E170" s="11">
         <v>25000</v>
       </c>
-      <c r="F170" s="12">
+      <c r="F170" s="11">
         <f t="shared" si="7"/>
         <v>25000</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A171" s="38">
+      <c r="A171" s="36">
         <v>4</v>
       </c>
-      <c r="B171" s="36" t="s">
+      <c r="B171" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C171" s="7">
-        <v>1</v>
-      </c>
-      <c r="D171" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E171" s="12">
+      <c r="C171" s="6">
+        <v>1</v>
+      </c>
+      <c r="D171" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E171" s="11">
         <v>35000</v>
       </c>
-      <c r="F171" s="12">
+      <c r="F171" s="11">
         <f t="shared" si="7"/>
         <v>35000</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="38">
+      <c r="A172" s="36">
         <v>5</v>
       </c>
-      <c r="B172" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="C172" s="7">
-        <v>1</v>
-      </c>
-      <c r="D172" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E172" s="12">
+      <c r="B172" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C172" s="6">
+        <v>1</v>
+      </c>
+      <c r="D172" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E172" s="11">
         <v>90000</v>
       </c>
-      <c r="F172" s="12">
+      <c r="F172" s="11">
         <f t="shared" si="7"/>
         <v>90000</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="50">
+      <c r="A173" s="45">
         <v>6</v>
       </c>
-      <c r="B173" s="58" t="s">
+      <c r="B173" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C173" s="52">
-        <v>1</v>
-      </c>
-      <c r="D173" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="E173" s="53">
+      <c r="C173" s="47">
+        <v>1</v>
+      </c>
+      <c r="D173" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="E173" s="48">
         <v>40000</v>
       </c>
-      <c r="F173" s="12">
+      <c r="F173" s="11">
         <f t="shared" si="7"/>
         <v>40000</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="89" t="s">
-        <v>20</v>
-      </c>
-      <c r="B174" s="90"/>
-      <c r="C174" s="90"/>
-      <c r="D174" s="90"/>
-      <c r="E174" s="90"/>
-      <c r="F174" s="102">
+      <c r="A174" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="B174" s="84"/>
+      <c r="C174" s="84"/>
+      <c r="D174" s="84"/>
+      <c r="E174" s="84"/>
+      <c r="F174" s="80">
         <f>SUM(F168:F173)</f>
         <v>230000</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F176" s="37"/>
+      <c r="F176" s="35"/>
     </row>
     <row r="177" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F177" s="37"/>
+      <c r="F177" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5460,18 +5376,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J131"/>
+  <dimension ref="A1:J107"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="73.5703125" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" style="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
@@ -5479,888 +5395,378 @@
     <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="93" t="s">
+    <row r="1" spans="1:10" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="95"/>
-    </row>
-    <row r="2" spans="1:8" s="8" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="89"/>
+    </row>
+    <row r="2" spans="1:10" s="7" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="H2" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="79" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="80"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="81"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="82"/>
-      <c r="B4" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="22"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="73"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="74"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="75"/>
+      <c r="B4" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="83"/>
-    </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
+      <c r="H4" s="76"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="75"/>
       <c r="B5" s="5"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="22"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="83"/>
-    </row>
-    <row r="6" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="82">
-        <v>1</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="C6" s="21">
+      <c r="H5" s="76"/>
+    </row>
+    <row r="6" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="75">
+        <v>1</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="20">
         <v>4</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="12">
+      <c r="D6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="11">
         <v>450000</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="11">
         <v>10000</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="11">
         <f>E6*C6</f>
         <v>1800000</v>
       </c>
-      <c r="H6" s="84">
-        <f t="shared" ref="H6:H15" si="0">F6*C6</f>
+      <c r="H6" s="77">
+        <f t="shared" ref="H6:H12" si="0">F6*C6</f>
         <v>40000</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A7" s="82">
+    <row r="7" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A7" s="75">
         <v>2</v>
       </c>
-      <c r="B7" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="C7" s="21">
+      <c r="B7" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="20">
         <v>6</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="12">
+      <c r="D7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="11">
         <v>265000</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="11">
         <v>15000</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="11">
         <f t="shared" ref="G7:G13" si="1">E7*C7</f>
         <v>1590000</v>
       </c>
-      <c r="H7" s="84">
+      <c r="H7" s="77">
         <f t="shared" si="0"/>
         <v>90000</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A8" s="82">
+    <row r="8" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="75">
         <v>3</v>
       </c>
-      <c r="B8" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="C8" s="21">
+      <c r="B8" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="20">
         <v>6</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="12">
+      <c r="D8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="11">
         <v>180000</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <v>15000</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="11">
         <f t="shared" si="1"/>
         <v>1080000</v>
       </c>
-      <c r="H8" s="84">
+      <c r="H8" s="77">
         <f t="shared" si="0"/>
         <v>90000</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="82">
+    <row r="9" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="75">
         <v>4</v>
       </c>
-      <c r="B9" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="C9" s="21">
+      <c r="B9" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="20">
         <v>6</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="12">
+      <c r="D9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="11">
         <v>265000</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="11">
         <v>15000</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="11">
         <f t="shared" si="1"/>
         <v>1590000</v>
       </c>
-      <c r="H9" s="84">
+      <c r="H9" s="77">
         <f t="shared" ref="H9" si="2">F9*C9</f>
         <v>90000</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="82">
+    <row r="10" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="75">
         <v>5</v>
       </c>
-      <c r="B10" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" s="7">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="12">
+      <c r="B10" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="11">
         <v>1750000</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <v>30000</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="11">
         <f t="shared" si="1"/>
         <v>1750000</v>
       </c>
-      <c r="H10" s="84">
+      <c r="H10" s="77">
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="82">
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="75">
         <v>6</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="12">
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="11">
         <v>40000</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <v>20000</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="11">
         <f t="shared" si="1"/>
         <v>40000</v>
       </c>
-      <c r="H11" s="84">
+      <c r="H11" s="77">
         <f t="shared" si="0"/>
         <v>20000</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="82">
+    <row r="12" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="75">
         <v>7</v>
       </c>
-      <c r="B12" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="7">
-        <v>1</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="12">
+      <c r="B12" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="11">
         <v>1350000</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="11">
         <v>50000</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="11">
         <f t="shared" si="1"/>
         <v>1350000</v>
       </c>
-      <c r="H12" s="84">
+      <c r="H12" s="77">
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="82">
+    <row r="13" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="75">
         <v>8</v>
       </c>
-      <c r="B13" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" s="7">
+      <c r="B13" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="6">
         <v>6</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="12">
+      <c r="D13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="11">
         <v>40000</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="11">
         <v>10000</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="11">
         <f t="shared" si="1"/>
         <v>240000</v>
       </c>
-      <c r="H13" s="84">
+      <c r="H13" s="77">
         <f t="shared" ref="H13" si="3">F13*C13</f>
         <v>60000</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="96" t="s">
-        <v>127</v>
-      </c>
-      <c r="B14" s="97"/>
-      <c r="C14" s="97"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="85">
+    <row r="14" spans="1:10" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="90" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="91"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="78">
         <f>SUM(G6:G13)</f>
         <v>9440000</v>
       </c>
-      <c r="H14" s="86">
+      <c r="H14" s="79">
         <f>SUM(H6:H13)</f>
         <v>470000</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="78">
-        <f t="shared" ref="G15" si="4">E15*C15</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="78">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-    </row>
-    <row r="18" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>1</v>
-      </c>
-      <c r="B18" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="7">
-        <v>3</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-    </row>
-    <row r="19" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>2</v>
-      </c>
-      <c r="B19" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="7">
-        <v>6</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-    </row>
-    <row r="20" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>3</v>
-      </c>
-      <c r="B20" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="7">
-        <v>6</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-    </row>
-    <row r="21" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>4</v>
-      </c>
-      <c r="B21" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="7">
-        <v>12</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-    </row>
-    <row r="22" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>5</v>
-      </c>
-      <c r="B22" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="7">
-        <v>6</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-    </row>
-    <row r="23" spans="1:8" ht="50.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>6</v>
-      </c>
-      <c r="B23" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>7</v>
-      </c>
-      <c r="B24" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="7">
-        <v>12</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>8</v>
-      </c>
-      <c r="B25" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="7">
-        <v>3</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>9</v>
-      </c>
-      <c r="B26" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="7">
-        <v>9</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-    </row>
-    <row r="27" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>10</v>
-      </c>
-      <c r="B27" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-    </row>
-    <row r="28" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>11</v>
-      </c>
-      <c r="B28" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="7">
-        <v>3</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-    </row>
-    <row r="29" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>12</v>
-      </c>
-      <c r="B29" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="7">
-        <v>3000</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>13</v>
-      </c>
-      <c r="B30" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="7">
-        <v>1</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>14</v>
-      </c>
-      <c r="B31" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="7">
-        <v>1</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>15</v>
-      </c>
-      <c r="B32" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="7">
-        <v>1</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-    </row>
-    <row r="33" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-    </row>
-    <row r="34" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-    </row>
-    <row r="35" spans="1:10" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>4</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="7">
-        <v>1</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12">
-        <f t="shared" ref="G35:G38" si="5">E35*C35</f>
-        <v>0</v>
-      </c>
-      <c r="H35" s="12">
-        <f t="shared" ref="H35:H38" si="6">F35*C35</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>5</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="7">
-        <v>6</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H36" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>6</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" s="7">
-        <v>1</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H37" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>8</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="7">
-        <v>1</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H38" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" s="1" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="B39" s="100"/>
-      <c r="C39" s="100"/>
-      <c r="D39" s="100"/>
-      <c r="E39" s="100"/>
-      <c r="F39" s="101"/>
-      <c r="G39" s="24">
-        <f>SUM(G18:G38)</f>
-        <v>0</v>
-      </c>
-      <c r="H39" s="24">
-        <f>SUM(H18:H38)</f>
-        <v>0</v>
-      </c>
-      <c r="J39" s="37"/>
-    </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="49" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="50" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="51" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="52" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="53" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="54" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="55" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="56" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="57" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="58" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="59" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="60" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="61" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="62" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="63" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="64" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="65" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="66" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="67" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="68" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="69" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="70" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="71" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="72" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="73" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="74" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="75" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="76" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="77" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="78" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="79" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="80" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="81" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="82" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="83" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="84" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="85" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="86" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="87" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="88" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="89" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="90" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="91" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="92" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="93" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="94" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="95" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="96" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="97" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="98" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="99" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="100" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="101" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="102" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="103" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="104" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="105" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="106" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="107" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="108" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="109" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="110" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="111" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="112" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="45"/>
-    </row>
-    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="45"/>
-    </row>
-    <row r="128" spans="1:8" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="96" t="s">
-        <v>129</v>
-      </c>
-      <c r="B128" s="97"/>
-      <c r="C128" s="97"/>
-      <c r="D128" s="97"/>
-      <c r="E128" s="97"/>
-      <c r="F128" s="98"/>
-      <c r="G128" s="85">
-        <f>SUM(G120:G127)</f>
-        <v>0</v>
-      </c>
-      <c r="H128" s="86">
+    <row r="15" spans="1:10" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="93" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="94"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22">
         <f>H14+G14</f>
         <v>9910000</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="45"/>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="45"/>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="45"/>
+      <c r="J15" s="35"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="40"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="40"/>
+    </row>
+    <row r="104" spans="1:8" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="90" t="s">
+        <v>109</v>
+      </c>
+      <c r="B104" s="91"/>
+      <c r="C104" s="91"/>
+      <c r="D104" s="91"/>
+      <c r="E104" s="91"/>
+      <c r="F104" s="92"/>
+      <c r="G104" s="78">
+        <f>SUM(G96:G103)</f>
+        <v>0</v>
+      </c>
+      <c r="H104" s="79">
+        <f>H14+G14</f>
+        <v>9910000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="40"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="40"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A128:F128"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A104:F104"/>
   </mergeCells>
-  <pageMargins left="0" right="0" top="0.5" bottom="0.25" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <rowBreaks count="2" manualBreakCount="2">
-    <brk id="9" max="7" man="1"/>
-    <brk id="14" max="16383" man="1"/>
+  <pageMargins left="0" right="0" top="0.51181102362204722" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="69" orientation="portrait" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="8" max="7" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>